--- a/Lab5/Book1.xlsx
+++ b/Lab5/Book1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/somto/Desktop/SMU/CSE 3353/Lab4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/somto/Desktop/SMU/CSE 3353/Lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC940BC-6031-1848-81B9-0823F4ECA5FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C948F9F7-570C-CD42-9DD5-C4233EBC4BED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1160" windowWidth="26340" windowHeight="17440" activeTab="1" xr2:uid="{E95EFB2B-C650-7B47-BC56-FA0DC7B3D46D}"/>
+    <workbookView xWindow="120" yWindow="1360" windowWidth="22340" windowHeight="17440" activeTab="1" xr2:uid="{E95EFB2B-C650-7B47-BC56-FA0DC7B3D46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t># Nodes</t>
   </si>
@@ -47,6 +48,12 @@
   </si>
   <si>
     <t>Graphs can be found on sheet 2</t>
+  </si>
+  <si>
+    <t>TspSa</t>
+  </si>
+  <si>
+    <t>TspPso</t>
   </si>
 </sst>
 </file>
@@ -136,6 +143,2949 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>SA vs PSO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspSa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F709-A848-A6B3-65F14D7D0B1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspPso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$43:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>361065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F709-A848-A6B3-65F14D7D0B1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1713109392"/>
+        <c:axId val="1760166960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1713109392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1760166960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1760166960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713109392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs DP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-043A-7040-A876-A4981F53159E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$35:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-043A-7040-A876-A4981F53159E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1581374815"/>
+        <c:axId val="1550069455"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1581374815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1550069455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1550069455"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581374815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspTabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FC2-4147-B69D-EAD070DC7C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspGa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FC2-4147-B69D-EAD070DC7C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspSa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3FC2-4147-B69D-EAD070DC7C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspPso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>361065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3FC2-4147-B69D-EAD070DC7C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tsp DP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3FC2-4147-B69D-EAD070DC7C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1778823488"/>
+        <c:axId val="1625145264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1778823488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1625145264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1625145264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778823488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tabu vs Ga vs SA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs PSO</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspTabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBED-8E48-A879-A108C71C25D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspGa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBED-8E48-A879-A108C71C25D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspSa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBED-8E48-A879-A108C71C25D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspPso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>361065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CBED-8E48-A879-A108C71C25D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1716691520"/>
+        <c:axId val="1760075840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1716691520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1760075840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1760075840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1716691520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Logarithmic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspTabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-658C-9D45-B9F9-292403CD65F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspGa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-658C-9D45-B9F9-292403CD65F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspSa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-658C-9D45-B9F9-292403CD65F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspPso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>361065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-658C-9D45-B9F9-292403CD65F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tsp DP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-658C-9D45-B9F9-292403CD65F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1778823488"/>
+        <c:axId val="1625145264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1778823488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1625145264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1625145264"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778823488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PSO vs GA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspPso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$43:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>361065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D21-1F44-AF3F-9A72A7B84B90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TspGa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$43:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D21-1F44-AF3F-9A72A7B84B90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1761542944"/>
+        <c:axId val="1761393920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1761542944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761393920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1761393920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761542944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Tabu Vs GA</a:t>
             </a:r>
           </a:p>
@@ -209,22 +3159,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5543</c:v>
+                  <c:v>8507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10961</c:v>
+                  <c:v>14119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19583</c:v>
+                  <c:v>23369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50536</c:v>
+                  <c:v>55514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87001</c:v>
+                  <c:v>98178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199789</c:v>
+                  <c:v>203500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -269,22 +3219,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13624</c:v>
+                  <c:v>12880</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14810</c:v>
+                  <c:v>14131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17332</c:v>
+                  <c:v>16783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19666</c:v>
+                  <c:v>18064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18905</c:v>
+                  <c:v>16193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22386</c:v>
+                  <c:v>27019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -605,7 +3555,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -713,22 +3663,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>780</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49153</c:v>
+                  <c:v>58029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>746048</c:v>
+                  <c:v>750935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,22 +3723,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,22 +3783,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5543</c:v>
+                  <c:v>8507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10961</c:v>
+                  <c:v>14119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19583</c:v>
+                  <c:v>23369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50536</c:v>
+                  <c:v>55514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87001</c:v>
+                  <c:v>98178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199789</c:v>
+                  <c:v>203500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,22 +3843,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13624</c:v>
+                  <c:v>12880</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14810</c:v>
+                  <c:v>14131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17332</c:v>
+                  <c:v>16783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19666</c:v>
+                  <c:v>18064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18905</c:v>
+                  <c:v>16193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22386</c:v>
+                  <c:v>27019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,7 +4180,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1343,22 +4293,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>780</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49153</c:v>
+                  <c:v>58029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>746048</c:v>
+                  <c:v>750935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,22 +4353,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,22 +4413,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5543</c:v>
+                  <c:v>8507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10961</c:v>
+                  <c:v>14119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19583</c:v>
+                  <c:v>23369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50536</c:v>
+                  <c:v>55514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87001</c:v>
+                  <c:v>98178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199789</c:v>
+                  <c:v>203500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,22 +4473,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13624</c:v>
+                  <c:v>12880</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14810</c:v>
+                  <c:v>14131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17332</c:v>
+                  <c:v>16783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19666</c:v>
+                  <c:v>18064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18905</c:v>
+                  <c:v>16193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22386</c:v>
+                  <c:v>27019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,7 +4809,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1947,9 +4897,6 @@
               <c:f>Sheet1!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TspTabu</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1972,22 +4919,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5543</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10961</c:v>
+                  <c:v>62646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19583</c:v>
+                  <c:v>62825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50536</c:v>
+                  <c:v>62084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87001</c:v>
+                  <c:v>62475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199789</c:v>
+                  <c:v>73200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2007,9 +4954,6 @@
               <c:f>Sheet1!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tsp DP</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2032,22 +4976,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>18786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>28243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>42617</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>91949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220</c:v>
+                  <c:v>155596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,516 +5312,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>GA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs DP</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TspGa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$35:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>13624</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14810</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22386</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-043A-7040-A876-A4981F53159E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tsp DP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$35:$D$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>220</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-043A-7040-A876-A4981F53159E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1581374815"/>
-        <c:axId val="1550069455"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1581374815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Nodes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1550069455"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1550069455"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1581374815"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3077,6 +5552,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3593,7 +6228,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4109,7 +6744,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4625,7 +7260,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5141,7 +7776,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5657,7 +8292,2782 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41814E5C-9701-754B-9D3D-E2580D14376A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2323A0E4-C56D-0248-A91B-7B4F5355EDF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF779C1-8D12-564B-A07A-AD3DD2BA0DC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D566BCB-39E9-DC41-8B17-498C92DADCDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D4C4D0-372D-1E49-8600-6E3BF651FCDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6149,20 +11559,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D33FCE-4AB9-1543-9DC9-751217BCF0DD}">
-  <dimension ref="B2:G40"/>
+  <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A26" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -6178,110 +11588,152 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>5543</v>
+        <v>8507</v>
       </c>
       <c r="F4">
-        <v>13624</v>
+        <v>12880</v>
+      </c>
+      <c r="G4">
+        <v>62646</v>
+      </c>
+      <c r="H4">
+        <v>18786</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>10961</v>
+        <v>14119</v>
       </c>
       <c r="F5">
-        <v>14810</v>
+        <v>14131</v>
+      </c>
+      <c r="G5">
+        <v>62825</v>
+      </c>
+      <c r="H5">
+        <v>28243</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>58</v>
       </c>
       <c r="E6">
-        <v>19583</v>
+        <v>23369</v>
       </c>
       <c r="F6">
-        <v>17332</v>
+        <v>16783</v>
+      </c>
+      <c r="G6">
+        <v>62084</v>
+      </c>
+      <c r="H6">
+        <v>42617</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7">
-        <v>50536</v>
+        <v>55514</v>
       </c>
       <c r="F7">
-        <v>19666</v>
+        <v>18064</v>
+      </c>
+      <c r="G7">
+        <v>62475</v>
+      </c>
+      <c r="H7">
+        <v>91949</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>49153</v>
+        <v>58029</v>
       </c>
       <c r="D8">
         <v>143</v>
       </c>
       <c r="E8">
-        <v>87001</v>
+        <v>98178</v>
       </c>
       <c r="F8">
-        <v>18905</v>
+        <v>16193</v>
+      </c>
+      <c r="G8">
+        <v>73200</v>
+      </c>
+      <c r="H8">
+        <v>155596</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>746048</v>
+        <v>750935</v>
       </c>
       <c r="D9">
-        <v>220</v>
+        <v>717</v>
       </c>
       <c r="E9">
-        <v>199789</v>
+        <v>203500</v>
       </c>
       <c r="F9">
-        <v>22386</v>
+        <v>27019</v>
+      </c>
+      <c r="G9">
+        <v>100585</v>
+      </c>
+      <c r="H9">
+        <v>361065</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -6291,228 +11743,333 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>5543</v>
+        <v>8507</v>
       </c>
       <c r="D16">
-        <v>13624</v>
+        <v>12880</v>
+      </c>
+      <c r="E16">
+        <v>62646</v>
+      </c>
+      <c r="F16">
+        <v>18786</v>
+      </c>
+      <c r="G16">
+        <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17">
-        <v>10961</v>
+        <v>14119</v>
       </c>
       <c r="D17">
-        <v>14810</v>
+        <v>14131</v>
+      </c>
+      <c r="E17">
+        <v>62825</v>
+      </c>
+      <c r="F17">
+        <v>28243</v>
+      </c>
+      <c r="G17">
+        <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>19583</v>
+        <v>23369</v>
       </c>
       <c r="D18">
-        <v>17332</v>
+        <v>16783</v>
+      </c>
+      <c r="E18">
+        <v>62084</v>
+      </c>
+      <c r="F18">
+        <v>42617</v>
+      </c>
+      <c r="G18">
+        <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>8</v>
       </c>
       <c r="C19">
-        <v>50536</v>
+        <v>55514</v>
       </c>
       <c r="D19">
-        <v>19666</v>
+        <v>18064</v>
+      </c>
+      <c r="E19">
+        <v>62475</v>
+      </c>
+      <c r="F19">
+        <v>91949</v>
+      </c>
+      <c r="G19">
+        <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>87001</v>
+        <v>98178</v>
       </c>
       <c r="D20">
-        <v>18905</v>
+        <v>16193</v>
+      </c>
+      <c r="E20">
+        <v>73200</v>
+      </c>
+      <c r="F20">
+        <v>155596</v>
+      </c>
+      <c r="G20">
+        <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>13</v>
       </c>
       <c r="C21">
-        <v>199789</v>
+        <v>203500</v>
       </c>
       <c r="D21">
-        <v>22386</v>
+        <v>27019</v>
+      </c>
+      <c r="E21">
+        <v>100585</v>
+      </c>
+      <c r="F21">
+        <v>361065</v>
+      </c>
+      <c r="G21">
+        <v>717</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="C25">
-        <v>5543</v>
-      </c>
-      <c r="D25">
-        <v>52</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="C26">
+        <v>62646</v>
+      </c>
+      <c r="D26">
+        <v>18786</v>
+      </c>
+      <c r="E26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>62825</v>
+      </c>
+      <c r="D27">
+        <v>28243</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>6</v>
       </c>
+      <c r="C28">
+        <v>62084</v>
+      </c>
+      <c r="D28">
+        <v>42617</v>
+      </c>
+      <c r="E28">
+        <v>58</v>
+      </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>62475</v>
+      </c>
+      <c r="D29">
+        <v>91949</v>
+      </c>
+      <c r="E29">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>73200</v>
+      </c>
+      <c r="D30">
+        <v>155596</v>
+      </c>
+      <c r="E30">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>100585</v>
+      </c>
+      <c r="D31">
+        <v>361065</v>
+      </c>
+      <c r="E31">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>62646</v>
+      </c>
+      <c r="D43">
+        <v>18786</v>
+      </c>
+      <c r="E43">
+        <v>12880</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>10961</v>
-      </c>
-      <c r="D26">
-        <v>54</v>
+      <c r="C44">
+        <v>62825</v>
+      </c>
+      <c r="D44">
+        <v>28243</v>
+      </c>
+      <c r="E44">
+        <v>14131</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>19583</v>
-      </c>
-      <c r="D27">
-        <v>58</v>
+      <c r="C45">
+        <v>62084</v>
+      </c>
+      <c r="D45">
+        <v>42617</v>
+      </c>
+      <c r="E45">
+        <v>16783</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46">
         <v>8</v>
       </c>
-      <c r="C28">
-        <v>50536</v>
-      </c>
-      <c r="D28">
-        <v>63</v>
+      <c r="C46">
+        <v>62475</v>
+      </c>
+      <c r="D46">
+        <v>91949</v>
+      </c>
+      <c r="E46">
+        <v>18064</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47">
         <v>10</v>
       </c>
-      <c r="C29">
-        <v>87001</v>
-      </c>
-      <c r="D29">
-        <v>143</v>
+      <c r="C47">
+        <v>73200</v>
+      </c>
+      <c r="D47">
+        <v>155596</v>
+      </c>
+      <c r="E47">
+        <v>16193</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48">
         <v>13</v>
       </c>
-      <c r="C30">
-        <v>199789</v>
-      </c>
-      <c r="D30">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>13624</v>
-      </c>
-      <c r="D35">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>14810</v>
-      </c>
-      <c r="D36">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <v>17332</v>
-      </c>
-      <c r="D37">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>19666</v>
-      </c>
-      <c r="D38">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>18905</v>
-      </c>
-      <c r="D39">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>13</v>
-      </c>
-      <c r="C40">
-        <v>22386</v>
-      </c>
-      <c r="D40">
-        <v>220</v>
+      <c r="C48">
+        <v>100585</v>
+      </c>
+      <c r="D48">
+        <v>361065</v>
+      </c>
+      <c r="E48">
+        <v>27019</v>
       </c>
     </row>
   </sheetData>
@@ -6521,10 +12078,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5B064F-6A7B-5D48-B918-941623D0E9B1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C801AB74-E601-844A-B2C7-11E8254FB532}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
